--- a/gra/gra/Assets/Maps/mapa2.xlsx
+++ b/gra/gra/Assets/Maps/mapa2.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yama\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unreal\gra\gra\Assets\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId2"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>start</t>
   </si>
@@ -149,6 +150,9 @@
   <si>
     <t>x y rot distX*2 distY*2 vectX vectY</t>
   </si>
+  <si>
+    <t>trap</t>
+  </si>
 </sst>
 </file>
 
@@ -171,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +242,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -251,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -277,6 +287,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -559,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD22" sqref="A1:AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,10 +2027,1491 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="22" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
+        <v>128</v>
+      </c>
+      <c r="D1" s="4">
+        <v>256</v>
+      </c>
+      <c r="E1" s="4">
+        <v>384</v>
+      </c>
+      <c r="F1" s="4">
+        <v>512</v>
+      </c>
+      <c r="G1" s="4">
+        <v>640</v>
+      </c>
+      <c r="H1" s="4">
+        <v>768</v>
+      </c>
+      <c r="I1" s="4">
+        <v>896</v>
+      </c>
+      <c r="J1" s="4">
+        <v>1024</v>
+      </c>
+      <c r="K1" s="4">
+        <v>1152</v>
+      </c>
+      <c r="L1" s="4">
+        <v>1280</v>
+      </c>
+      <c r="M1" s="4">
+        <v>1408</v>
+      </c>
+      <c r="N1" s="4">
+        <v>1536</v>
+      </c>
+      <c r="O1" s="4">
+        <v>1664</v>
+      </c>
+      <c r="P1" s="4">
+        <v>1792</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>1920</v>
+      </c>
+      <c r="R1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="S1" s="4">
+        <v>2176</v>
+      </c>
+      <c r="T1" s="4">
+        <v>2304</v>
+      </c>
+      <c r="U1" s="4">
+        <v>2432</v>
+      </c>
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1</v>
+      </c>
+      <c r="P2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6">
+        <v>1</v>
+      </c>
+      <c r="S2" s="6">
+        <v>1</v>
+      </c>
+      <c r="T2" s="6">
+        <v>1</v>
+      </c>
+      <c r="U2" s="6">
+        <v>1</v>
+      </c>
+      <c r="V2" s="5"/>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>128</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <v>1</v>
+      </c>
+      <c r="U3" s="6">
+        <v>1</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>256</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>1</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
+      <c r="V4" s="5"/>
+      <c r="X4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>384</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="X5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>512</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>640</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+      <c r="U7" s="6">
+        <v>1</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>768</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
+        <v>1</v>
+      </c>
+      <c r="T8" s="25">
+        <v>0</v>
+      </c>
+      <c r="U8" s="6">
+        <v>1</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="X8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>896</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <v>1</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="X9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1024</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <v>1</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <v>1</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="X10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1152</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
+      <c r="R11" s="10">
+        <v>0</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <v>1</v>
+      </c>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1280</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1</v>
+      </c>
+      <c r="S12" s="6">
+        <v>1</v>
+      </c>
+      <c r="T12" s="6">
+        <v>1</v>
+      </c>
+      <c r="U12" s="6">
+        <v>1</v>
+      </c>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>1408</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1</v>
+      </c>
+      <c r="R13" s="6">
+        <v>1</v>
+      </c>
+      <c r="S13" s="6">
+        <v>1</v>
+      </c>
+      <c r="T13" s="6">
+        <v>1</v>
+      </c>
+      <c r="U13" s="6">
+        <v>1</v>
+      </c>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>1536</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6">
+        <v>1</v>
+      </c>
+      <c r="S14" s="6">
+        <v>1</v>
+      </c>
+      <c r="T14" s="6">
+        <v>1</v>
+      </c>
+      <c r="U14" s="6">
+        <v>1</v>
+      </c>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>1664</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="25">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6">
+        <v>1</v>
+      </c>
+      <c r="S15" s="6">
+        <v>1</v>
+      </c>
+      <c r="T15" s="6">
+        <v>1</v>
+      </c>
+      <c r="U15" s="6">
+        <v>1</v>
+      </c>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>1792</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="25">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="6">
+        <v>1</v>
+      </c>
+      <c r="S16" s="6">
+        <v>1</v>
+      </c>
+      <c r="T16" s="6">
+        <v>1</v>
+      </c>
+      <c r="U16" s="6">
+        <v>1</v>
+      </c>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>1920</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" s="25">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <v>1</v>
+      </c>
+      <c r="S17" s="6">
+        <v>1</v>
+      </c>
+      <c r="T17" s="6">
+        <v>1</v>
+      </c>
+      <c r="U17" s="6">
+        <v>1</v>
+      </c>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2048</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>1</v>
+      </c>
+      <c r="T18" s="6">
+        <v>1</v>
+      </c>
+      <c r="U18" s="6">
+        <v>1</v>
+      </c>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2176</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6">
+        <v>1</v>
+      </c>
+      <c r="S19" s="6">
+        <v>1</v>
+      </c>
+      <c r="T19" s="6">
+        <v>1</v>
+      </c>
+      <c r="U19" s="6">
+        <v>1</v>
+      </c>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2304</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>1</v>
+      </c>
+      <c r="R20" s="6">
+        <v>1</v>
+      </c>
+      <c r="S20" s="6">
+        <v>1</v>
+      </c>
+      <c r="T20" s="6">
+        <v>1</v>
+      </c>
+      <c r="U20" s="6">
+        <v>1</v>
+      </c>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2432</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>1</v>
+      </c>
+      <c r="R21" s="6">
+        <v>1</v>
+      </c>
+      <c r="S21" s="6">
+        <v>1</v>
+      </c>
+      <c r="T21" s="6">
+        <v>1</v>
+      </c>
+      <c r="U21" s="6">
+        <v>1</v>
+      </c>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
